--- a/biology/Médecine/Champignon_noir_(complication_liée_à_la_COVID-19)/Champignon_noir_(complication_liée_à_la_COVID-19).xlsx
+++ b/biology/Médecine/Champignon_noir_(complication_liée_à_la_COVID-19)/Champignon_noir_(complication_liée_à_la_COVID-19).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Champignon_noir_(complication_li%C3%A9e_%C3%A0_la_COVID-19)</t>
+          <t>Champignon_noir_(complication_liée_à_la_COVID-19)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mucormycose associée à la COVID-19[1], communément appelée « champignon noir » (black fungus)[2], est l'association d'une atteinte de mucormycose (une infection fongique agressive) avec la COVID-19[3]. On la rencontre logée au poumon ou autour du nez, des yeux et du cerveau - une telle manifestation clinique est parfois appelée «mucormycose rhino-orbito-cérébrales (ROC)»[4]. La maladie ne se transmet pas de personne à personne, elle n'est pas contagieuse[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mucormycose associée à la COVID-19, communément appelée « champignon noir » (black fungus), est l'association d'une atteinte de mucormycose (une infection fongique agressive) avec la COVID-19. On la rencontre logée au poumon ou autour du nez, des yeux et du cerveau - une telle manifestation clinique est parfois appelée «mucormycose rhino-orbito-cérébrales (ROC)». La maladie ne se transmet pas de personne à personne, elle n'est pas contagieuse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Champignon_noir_(complication_li%C3%A9e_%C3%A0_la_COVID-19)</t>
+          <t>Champignon_noir_(complication_liée_à_la_COVID-19)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les rapports de mucormycose opportuniste associée à la COVID-19 étaient encore, d'une façon générale, qualifiés de rares, début 2021 (par rapport aux cas associés d'aspergilloses pulmonaires)[1]. Une revue de la littérature médicale faisait état de huit cas signalés dans le monde au 9 janvier 2021. Dans ces rapports, le facteur de risque le plus courant associé à la mucormycose est le diabète, amplifié peut-être par l'usage de certains corticoïdes. Selon cette étude, la plupart des cas se sont manifestés pendant l'hospitalisation (souvent 10 à 14 jours après l'admission), toutes les personnes touchées sauf une sont décédées. Un traitement agressif précoce est considéré essentiel. (On estime qu'entre 40% et  80% des personnes qui contractent une forme quelconque de mucormycose meurent de cette affection, selon le site de l'infection et les comorbidités déjà présentes[6].)
-La mucormycose associée à la COVID a touché plus particulièrement les personnes en Inde[7]. L'association mucormycose/COVID est également apparue en Russie[8], Uruguay[9] et Chili[10]. Une des raisons pour lesquelles l'association a fait surface aussi singulièrement en Inde est la concomitance de taux élevé d'infection à la COVID et de taux élevé de diabète[11]. En mai 2021, le Conseil indien de la recherche médicale a publié des guides de bonnes pratiques pour reconnaître et traiter la mucormycose associée à la COVID[12].
-En raison du nombre croissant de cas, le gouvernement du Rajasthan a déclaré le champignon noir épidémique le 19 mai 2021. Avec le gouvernement du Rajasthan, les gouvernements de l' Haryana, du Tamil Nadu, du Telangana, du Gujarat et du Bihar ont également déclaré cette mycose comme étant de nature épidémique[13].
-En juillet 2021, on apprend via le journal Hindoustan Times que l'Inde a signalé jusqu'à présent plus de 45 000 cas de champignons noirs[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rapports de mucormycose opportuniste associée à la COVID-19 étaient encore, d'une façon générale, qualifiés de rares, début 2021 (par rapport aux cas associés d'aspergilloses pulmonaires). Une revue de la littérature médicale faisait état de huit cas signalés dans le monde au 9 janvier 2021. Dans ces rapports, le facteur de risque le plus courant associé à la mucormycose est le diabète, amplifié peut-être par l'usage de certains corticoïdes. Selon cette étude, la plupart des cas se sont manifestés pendant l'hospitalisation (souvent 10 à 14 jours après l'admission), toutes les personnes touchées sauf une sont décédées. Un traitement agressif précoce est considéré essentiel. (On estime qu'entre 40% et  80% des personnes qui contractent une forme quelconque de mucormycose meurent de cette affection, selon le site de l'infection et les comorbidités déjà présentes.)
+La mucormycose associée à la COVID a touché plus particulièrement les personnes en Inde. L'association mucormycose/COVID est également apparue en Russie, Uruguay et Chili. Une des raisons pour lesquelles l'association a fait surface aussi singulièrement en Inde est la concomitance de taux élevé d'infection à la COVID et de taux élevé de diabète. En mai 2021, le Conseil indien de la recherche médicale a publié des guides de bonnes pratiques pour reconnaître et traiter la mucormycose associée à la COVID.
+En raison du nombre croissant de cas, le gouvernement du Rajasthan a déclaré le champignon noir épidémique le 19 mai 2021. Avec le gouvernement du Rajasthan, les gouvernements de l' Haryana, du Tamil Nadu, du Telangana, du Gujarat et du Bihar ont également déclaré cette mycose comme étant de nature épidémique.
+En juillet 2021, on apprend via le journal Hindoustan Times que l'Inde a signalé jusqu'à présent plus de 45 000 cas de champignons noirs.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Champignon_noir_(complication_li%C3%A9e_%C3%A0_la_COVID-19)</t>
+          <t>Champignon_noir_(complication_liée_à_la_COVID-19)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Variant B.1.617 de la COVID-19</t>
         </is>
